--- a/archivos/Liquidacion_Nomina_Casos.xlsx
+++ b/archivos/Liquidacion_Nomina_Casos.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2f3855046cae5df/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B467A752-64F3-435C-B36D-DCE056044C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BC01FA7-67D4-4014-A0CB-F1BF6A24D269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Casos de Liquidación" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,37 +28,22 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Campo</t>
   </si>
   <si>
-    <t>Caso Normal</t>
-  </si>
-  <si>
-    <t>Caso Extraordinario</t>
-  </si>
-  <si>
-    <t>Caso Error</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>Ana Gómez</t>
-  </si>
-  <si>
-    <t>Luis Torres</t>
-  </si>
-  <si>
-    <t>Pedro Ramírez</t>
-  </si>
-  <si>
     <t>Días laborados</t>
   </si>
   <si>
@@ -77,9 +62,6 @@
     <t>Bonificaciones</t>
   </si>
   <si>
-    <t>Comisiones</t>
-  </si>
-  <si>
     <t>Salario devengado</t>
   </si>
   <si>
@@ -113,17 +95,92 @@
     <t>Horas extras nocturnas</t>
   </si>
   <si>
-    <t>Horas extras festivas</t>
-  </si>
-  <si>
     <t>Horas extra nocturna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Caso Normal 1</t>
+  </si>
+  <si>
+    <t>Caso Normal 2</t>
+  </si>
+  <si>
+    <t>Caso Normal 3</t>
+  </si>
+  <si>
+    <t>Caso Extra 1</t>
+  </si>
+  <si>
+    <t>Caso Extra 2</t>
+  </si>
+  <si>
+    <t>Caso Extra 3</t>
+  </si>
+  <si>
+    <t>Caso Error 1</t>
+  </si>
+  <si>
+    <t>Caso Error 2</t>
+  </si>
+  <si>
+    <t>Caso Error 3</t>
+  </si>
+  <si>
+    <t>Caso Error 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Ana Gómez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mario Ruiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Laura Vélez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Luis Torres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sara Beltrán</t>
+  </si>
+  <si>
+    <t>Juan Ortiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Pedro Ramírez</t>
+  </si>
+  <si>
+    <t>Daniela Cárdenas</t>
+  </si>
+  <si>
+    <t>Esteban Díaz</t>
+  </si>
+  <si>
+    <t>Camila López</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      texto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          texto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          #¡NOMBRE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      #¡NOMBRE?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,13 +191,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -152,12 +204,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
+        <fgColor rgb="FFFF9999"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9999"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -173,11 +226,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,378 +540,558 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFCECF3-9F83-4D94-BD11-FBE3DBF4D296}">
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="3">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3">
+        <v>28</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B4" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1600000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1450000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-500000</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" s="3">
+        <v>1423500</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1423500</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1423500</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1423500</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1423500</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1423500</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1423500</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1423500</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1423500</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1423500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B6" s="3">
+        <v>162000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>162000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>162000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>162000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>162000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>162000</v>
+      </c>
+      <c r="I6" s="3">
+        <v>162000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>162000</v>
+      </c>
+      <c r="K6" s="3">
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>200000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>150000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1500000</v>
-      </c>
-      <c r="C4">
-        <v>1800000</v>
-      </c>
-      <c r="D4">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>1423500</v>
-      </c>
-      <c r="C5">
-        <v>1423500</v>
-      </c>
-      <c r="D5">
-        <v>1423500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>200000</v>
-      </c>
-      <c r="C6">
-        <v>200000</v>
-      </c>
-      <c r="D6">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>100000</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>150000</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
+      <c r="B12">
         <f>MIN(B3,B3)*(B4/30)</f>
         <v>1500000</v>
       </c>
+      <c r="C12">
+        <f>MIN(C3,C3)*(C4/30)</f>
+        <v>1600000</v>
+      </c>
+      <c r="D12">
+        <f>MIN(D3,D3)*(D4/30)</f>
+        <v>1450000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <f>IF(B4&lt;=2*B5, B6*(B3/30), 0)</f>
+        <v>162000</v>
+      </c>
       <c r="C13">
-        <f>MIN(C3,C3)*(C4/30)</f>
-        <v>1800000</v>
+        <f>IF(C4&lt;=2*C5, C6*(C3/30), 0)</f>
+        <v>162000</v>
       </c>
       <c r="D13">
-        <f>MIN(D3,D3)*(D4/30)</f>
-        <v>1633333.3333333333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
+        <f>IF(D4&lt;=2*D5, D6*(D3/30), 0)</f>
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B14">
-        <f>IF(B4&lt;=2*B5, B6*(B3/30), 0)</f>
-        <v>200000</v>
-      </c>
-      <c r="C14">
-        <f>IF(C4&lt;=2*C5, C6*(C3/30), 0)</f>
-        <v>200000</v>
-      </c>
-      <c r="D14">
-        <f>IF(D4&lt;=2*D5, D6*(D3/30), 0)</f>
-        <v>233333.33333333334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
         <f>B4/240</f>
         <v>6250</v>
       </c>
+      <c r="C14">
+        <f>C4/240</f>
+        <v>6666.666666666667</v>
+      </c>
+      <c r="D14">
+        <f>D4/240</f>
+        <v>6041.666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <f>B8*(B14*1.75)</f>
+        <v>0</v>
+      </c>
       <c r="C15">
-        <f>C4/240</f>
-        <v>7500</v>
+        <f>C8*(C14*1.75)</f>
+        <v>0</v>
       </c>
       <c r="D15">
-        <f>D4/240</f>
-        <v>5833.333333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
+        <f>D8*(D14*1.75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B16">
-        <f>B8*(B15*2)</f>
+        <f>B7*(B14*1.25)</f>
         <v>0</v>
       </c>
       <c r="C16">
-        <f>C8*(C15*2)</f>
-        <v>30000</v>
+        <f>C7*(C14*1.25)</f>
+        <v>8333.3333333333339</v>
       </c>
       <c r="D16">
-        <f>C8*(C15*2)</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
+        <f>D7*(D14*1.25)</f>
+        <v>15104.166666666668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B17">
-        <f>B9*(B15*1.75)</f>
-        <v>0</v>
+        <f>B12+B13+B15</f>
+        <v>1662000</v>
       </c>
       <c r="C17">
-        <f>C9*(C15*1.75)</f>
-        <v>78750</v>
+        <f>C12+C13+C15+C16+C9</f>
+        <v>1770333.3333333333</v>
       </c>
       <c r="D17">
-        <f>D9*(D15*1.75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
+        <f>D12+D13+D15+D16+D9</f>
+        <v>1627104.1666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B18">
-        <f>B7*(B15*1.25)</f>
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <f>C7*(C15*1.25)</f>
-        <v>93750</v>
-      </c>
-      <c r="D18">
-        <f>D7*(D15*1.25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <f>B13+B14+B16+B18+B17+B10+B11</f>
-        <v>1700000</v>
-      </c>
-      <c r="C19">
-        <f>C13+C14+C16+C17+C18+C10+C11</f>
-        <v>2452500</v>
-      </c>
-      <c r="D19">
-        <f>D13+D14+D16+D17+D18+D10+D11</f>
-        <v>1896666.6666666665</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
         <f>B4*0.04</f>
         <v>60000</v>
       </c>
-      <c r="C20">
-        <f>C4*0.04</f>
-        <v>72000</v>
-      </c>
-      <c r="D20">
-        <f>D4*0.04</f>
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
+      <c r="C18">
+        <f>C5*0.04</f>
+        <v>56940</v>
+      </c>
+      <c r="D18">
+        <f>D5*0.04</f>
+        <v>56940</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
         <f>B4*0.04</f>
         <v>60000</v>
       </c>
+      <c r="C19">
+        <f>C5*0.04</f>
+        <v>56940</v>
+      </c>
+      <c r="D19">
+        <f>D5*0.04</f>
+        <v>56940</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <f>B18+B19</f>
+        <v>120000</v>
+      </c>
+      <c r="C20">
+        <f>C19+C18</f>
+        <v>113880</v>
+      </c>
+      <c r="D20">
+        <f>D19+D18</f>
+        <v>113880</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <f>B17-B20</f>
+        <v>1542000</v>
+      </c>
       <c r="C21">
-        <f>C4*0.04</f>
-        <v>72000</v>
+        <f>C17-C20</f>
+        <v>1656453.3333333333</v>
       </c>
       <c r="D21">
-        <f>D4*0.04</f>
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <f>B21+B20</f>
-        <v>120000</v>
-      </c>
-      <c r="C22">
-        <f>C21+C20</f>
-        <v>144000</v>
-      </c>
-      <c r="D22">
-        <f>D21+D20</f>
-        <v>112000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <f>B19-B22</f>
-        <v>1580000</v>
-      </c>
-      <c r="C23">
-        <f>C19-C22</f>
-        <v>2308500</v>
-      </c>
-      <c r="D23">
-        <f>D19-D22</f>
-        <v>1784666.6666666665</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3" t="str">
+        <f>D17-D20</f>
+        <v>1513224.1666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="str">
         <f>IF(OR(B3&gt;30,B4&lt;=0,ISBLANK(B6)),"ERROR","OK")</f>
         <v>OK</v>
       </c>
-      <c r="C24" s="3" t="e">
+      <c r="C22" s="2" t="e">
         <f ca="1">IF(OR(C3&gt;30,C4&lt;=0,ISCLANK(C6)),"ERROR","OK")</f>
         <v>#NAME?</v>
       </c>
-      <c r="D24" s="3" t="e">
+      <c r="D22" s="2" t="e">
         <f ca="1">IF(OR(D3&gt;30,D4&lt;=0,ISDLANK(D6)),"ERROR","OK")</f>
         <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>